--- a/content/cv/Biosketch/positions-honors-nih.xlsx
+++ b/content/cv/Biosketch/positions-honors-nih.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickgiangreco/GitHub/ngiangre.github.io/content/cv/Biosketch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F951428-8A44-BC4D-A9C2-19B5C06DD778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FE36D9-DD79-B845-8313-690B2A709EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{C9DAF541-EA2F-444F-ADBC-9F9F1ED27A59}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>Systems Biologist, Columbia University</t>
   </si>
   <si>
-    <t>Quantitative Transslational Scientist, Regeneron Pharmaceuticals</t>
-  </si>
-  <si>
     <t>Computer Science Advisor, MindArch Health</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Outstanding Contribution to Methodological Research at OHDSI symposium</t>
+  </si>
+  <si>
+    <t>Quantitative Translational Scientist, Regeneron Pharmaceuticals</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,7 +504,7 @@
         <v>2021</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -518,7 +518,7 @@
         <v>2023</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -535,7 +535,7 @@
         <v>2021</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2018</v>
@@ -552,7 +552,7 @@
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -560,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -569,7 +569,7 @@
         <v>2022</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2018</v>
@@ -586,7 +586,7 @@
         <v>2018</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
